--- a/src/test/resources/case/testCase.xlsx
+++ b/src/test/resources/case/testCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\Idea\Projects\java-auto\src\test\resources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC63D7-C7B6-4CC5-A851-EC9DE0635AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB09FC-49DB-4052-8706-9BB6E702D004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,24 +811,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,125 +1140,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1276,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1286,23 +1289,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
